--- a/nodes_source_analyses/energy/transport/transport_truck_using_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/energy/transport/transport_truck_using_hydrogen.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB3A353-ABB2-FA44-B33C-B370396C5D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26900" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="16100" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,10 +37,20 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
   <si>
     <t>Source</t>
   </si>
@@ -69,9 +80,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Initial investment costs</t>
-  </si>
-  <si>
     <t>NL</t>
   </si>
   <si>
@@ -120,21 +128,12 @@
     <t>free_co2_factor</t>
   </si>
   <si>
-    <t>initial_investment</t>
-  </si>
-  <si>
-    <t>fixed_operation_and_maintenance_costs_per_year</t>
-  </si>
-  <si>
     <t>technical_lifetime</t>
   </si>
   <si>
     <t>euro/year</t>
   </si>
   <si>
-    <t>Fixed operational and maintenance costs per year</t>
-  </si>
-  <si>
     <t xml:space="preserve">Technical lifetime </t>
   </si>
   <si>
@@ -199,9 +198,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>Cost</t>
   </si>
   <si>
     <t>cedelft-ecn-tno</t>
@@ -267,118 +263,6 @@
     <t>Investment costs</t>
   </si>
   <si>
-    <r>
-      <t>variable_operation_and_maintenance_costs_per_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>full_load_hour</t>
-    </r>
-  </si>
-  <si>
-    <t>euro/flh</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Variable operation and maintenance costs per </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>flh</t>
-    </r>
-  </si>
-  <si>
-    <t>ccs_investment</t>
-  </si>
-  <si>
-    <t>CCS investment costs</t>
-  </si>
-  <si>
-    <t>cost_of_installing</t>
-  </si>
-  <si>
-    <t>Installation costs</t>
-  </si>
-  <si>
-    <r>
-      <t>decommis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ioning_costs</t>
-    </r>
-  </si>
-  <si>
-    <t>Decommissioning costs</t>
-  </si>
-  <si>
-    <t>variable_operation_and_maintenance_costs_for_ccs_per_full_load_hour</t>
-  </si>
-  <si>
-    <t>Variable operational and maintenance costs for ccs per flh</t>
-  </si>
-  <si>
-    <t>wacc</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Weighted average cost of capita</t>
-  </si>
-  <si>
-    <t>takes_part_in_ets</t>
-  </si>
-  <si>
-    <t>yes=1, no=0</t>
-  </si>
-  <si>
-    <t>construction_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construction time of the plant </t>
-  </si>
-  <si>
-    <t>Set to 0 baseline</t>
-  </si>
-  <si>
-    <t>full_load_hours</t>
-  </si>
-  <si>
-    <t>Full load hours</t>
-  </si>
-  <si>
-    <t>Necessary attribute for 0 euro car costs baseline</t>
-  </si>
-  <si>
     <t>p.66</t>
   </si>
   <si>
@@ -461,9 +345,6 @@
     <t>mln</t>
   </si>
   <si>
-    <t>Note: Eurostat freight transport excludes all vehicles &lt; 3.5 tonne. Since vans are included in the truck category in the ETM, we calculated the weighted efficiency</t>
-  </si>
-  <si>
     <t>truck tonne kms</t>
   </si>
   <si>
@@ -483,24 +364,42 @@
   </si>
   <si>
     <t>km/mj</t>
+  </si>
+  <si>
+    <t>Note: vans are no longer part of trucks in the ETM</t>
+  </si>
+  <si>
+    <t>Weighted average is therefore no longer used</t>
+  </si>
+  <si>
+    <t>Only truck data is used</t>
+  </si>
+  <si>
+    <t>Note: Eurostat freight transport excludes all vehicles &lt; 3.5 tonne.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -795,7 +694,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1000,552 +899,527 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="259" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="259" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="31" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="32" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="287">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1842,6 +1716,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1863,7 +1740,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1901,7 +1784,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1939,7 +1828,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1977,7 +1872,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2015,7 +1916,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2053,7 +1960,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2091,7 +2004,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2129,7 +2048,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2589,8 +2514,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
@@ -2599,7 +2524,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="27" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" style="18" customWidth="1"/>
@@ -2607,162 +2532,162 @@
     <col min="4" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="25" customFormat="1">
       <c r="A1" s="23"/>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="78" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" s="79"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="80"/>
       <c r="C10" s="81"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="80" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="80"/>
       <c r="C12" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="80"/>
       <c r="C13" s="83" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="80"/>
       <c r="C15" s="81"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="80" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="80"/>
       <c r="C17" s="85" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="80"/>
       <c r="C18" s="86" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="80"/>
       <c r="C19" s="87" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="88"/>
       <c r="C20" s="89" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="88"/>
       <c r="C21" s="90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="88"/>
       <c r="C22" s="91" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="B23" s="88"/>
       <c r="C23" s="92" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2772,17 +2697,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D11"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.83203125" style="32" customWidth="1"/>
     <col min="2" max="2" width="2.1640625" style="32" customWidth="1"/>
@@ -2797,50 +2722,50 @@
     <col min="11" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="151" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="153"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="154"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="156"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="154"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="156"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="157"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="159"/>
-    </row>
-    <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="16" customHeight="1">
+      <c r="B2" s="142" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="144"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="145"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="147"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="145"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="147"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="148"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="150"/>
+    </row>
+    <row r="6" spans="2:10" ht="17" thickBot="1">
       <c r="D6" s="33"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="34"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -2851,28 +2776,28 @@
       <c r="I7" s="17"/>
       <c r="J7" s="35"/>
     </row>
-    <row r="8" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" s="22" customFormat="1">
       <c r="B8" s="20"/>
       <c r="C8" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="98" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="103"/>
-    </row>
-    <row r="9" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="101"/>
+    </row>
+    <row r="9" spans="2:10" s="22" customFormat="1">
       <c r="B9" s="21"/>
       <c r="C9" s="13"/>
       <c r="D9" s="29"/>
@@ -2883,10 +2808,10 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" s="22" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="21"/>
       <c r="C10" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="13"/>
@@ -2896,355 +2821,101 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" s="22" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="21"/>
       <c r="C11" s="60" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="125">
+        <v>67</v>
+      </c>
+      <c r="E11" s="123">
         <f>'Research data'!F7</f>
-        <v>0.93176970700411599</v>
+        <v>1.3427448901638577</v>
       </c>
       <c r="F11" s="36"/>
-      <c r="G11" s="124" t="s">
-        <v>63</v>
+      <c r="G11" s="122" t="s">
+        <v>58</v>
       </c>
       <c r="H11" s="28"/>
-      <c r="I11" s="106" t="s">
-        <v>56</v>
+      <c r="I11" s="104" t="s">
+        <v>51</v>
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="140" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="38">
-        <v>0</v>
-      </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="140" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="33"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
+      <c r="B12" s="37"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="102"/>
+    </row>
+    <row r="13" spans="2:10" ht="17" thickBot="1">
       <c r="B13" s="37"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="101"/>
+      <c r="C13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="99"/>
+      <c r="E13" s="100"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="33"/>
-    </row>
-    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="81"/>
+      <c r="J13" s="102"/>
+    </row>
+    <row r="14" spans="2:10" ht="17" thickBot="1">
       <c r="B14" s="37"/>
-      <c r="C14" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="104"/>
-    </row>
-    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="38">
+        <f>'Research data'!F14</f>
+        <v>12</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="36"/>
+      <c r="I14" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="102"/>
+    </row>
+    <row r="15" spans="2:10" ht="17" thickBot="1">
       <c r="B15" s="37"/>
       <c r="C15" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E15" s="38">
         <v>0</v>
       </c>
       <c r="F15" s="36"/>
-      <c r="G15" s="36" t="s">
-        <v>6</v>
-      </c>
+      <c r="G15" s="36"/>
       <c r="H15" s="36"/>
-      <c r="I15" s="138" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" s="104"/>
-    </row>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="37"/>
-      <c r="C16" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="99">
-        <v>0</v>
-      </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="138" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="104"/>
-    </row>
-    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="131"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="133" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="134" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="99">
-        <v>0</v>
-      </c>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="133"/>
-      <c r="I17" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="135"/>
-    </row>
-    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="131"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="133" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="134"/>
-      <c r="E18" s="99">
-        <v>0</v>
-      </c>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="133"/>
-      <c r="I18" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" s="135"/>
-    </row>
-    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="131"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="133" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="134"/>
-      <c r="E19" s="99">
-        <v>0</v>
-      </c>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="133"/>
-      <c r="I19" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19" s="135"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="131"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="133" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="134"/>
-      <c r="E20" s="99">
-        <v>0</v>
-      </c>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="133"/>
-      <c r="I20" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20" s="135"/>
-    </row>
-    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="131"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="133" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="134"/>
-      <c r="E21" s="99">
-        <v>0</v>
-      </c>
-      <c r="F21" s="133"/>
-      <c r="G21" s="136" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="133"/>
-      <c r="I21" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="J21" s="135"/>
-    </row>
-    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="131"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="136" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="99">
-        <v>0</v>
-      </c>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="136"/>
-      <c r="I22" s="138" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" s="139"/>
-    </row>
-    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="131"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="99">
-        <v>0</v>
-      </c>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="138" t="s">
-        <v>87</v>
-      </c>
-      <c r="J23" s="139"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="37"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="104"/>
-    </row>
-    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="37"/>
-      <c r="C25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="104"/>
-    </row>
-    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="37"/>
-      <c r="C26" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="38">
-        <f>'Research data'!F14</f>
-        <v>12</v>
-      </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="36"/>
-      <c r="I26" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="104"/>
-    </row>
-    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="131"/>
-      <c r="B27" s="137"/>
-      <c r="C27" s="136" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="99">
-        <v>0</v>
-      </c>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="136"/>
-      <c r="I27" s="138" t="s">
-        <v>87</v>
-      </c>
-      <c r="J27" s="139"/>
-    </row>
-    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="37"/>
-      <c r="C28" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="38">
-        <v>0</v>
-      </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="104"/>
-    </row>
-    <row r="29" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="41"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="102"/>
+    </row>
+    <row r="16" spans="2:10" ht="17" thickBot="1">
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3256,8 +2927,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A2:O15"/>
@@ -3266,7 +2937,7 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="42" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="42" customWidth="1"/>
@@ -3285,8 +2956,8 @@
     <col min="15" max="16384" width="10.83203125" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="17" thickBot="1"/>
+    <row r="3" spans="1:15">
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -3301,21 +2972,21 @@
       <c r="M3" s="44"/>
       <c r="N3" s="44"/>
     </row>
-    <row r="4" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="22" customFormat="1">
       <c r="B4" s="21"/>
       <c r="C4" s="94" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D4" s="94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="94"/>
       <c r="F4" s="94" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G4" s="94"/>
       <c r="H4" s="94" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I4" s="94"/>
       <c r="J4" s="94"/>
@@ -3323,10 +2994,10 @@
       <c r="L4" s="94"/>
       <c r="M4" s="94"/>
       <c r="N4" s="94" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18" customHeight="1">
       <c r="A5" s="22"/>
       <c r="B5" s="21"/>
       <c r="C5" s="9"/>
@@ -3343,11 +3014,11 @@
       <c r="N5" s="9"/>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="22"/>
       <c r="B6" s="21"/>
       <c r="C6" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="30"/>
@@ -3360,33 +3031,33 @@
       <c r="L6" s="46"/>
       <c r="N6" s="57"/>
     </row>
-    <row r="7" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="17" thickBot="1">
       <c r="A7" s="22"/>
       <c r="B7" s="21"/>
-      <c r="C7" s="114" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="115" t="s">
-        <v>94</v>
+      <c r="C7" s="112" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="113" t="s">
+        <v>67</v>
       </c>
       <c r="E7" s="95"/>
-      <c r="F7" s="123">
+      <c r="F7" s="121">
         <f>H7</f>
-        <v>0.93176970700411599</v>
+        <v>1.3427448901638577</v>
       </c>
       <c r="G7" s="49"/>
-      <c r="H7" s="123">
+      <c r="H7" s="121">
         <f>Notes!E69</f>
-        <v>0.93176970700411599</v>
+        <v>1.3427448901638577</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="56"/>
       <c r="K7" s="56"/>
       <c r="L7" s="56"/>
       <c r="M7" s="46"/>
-      <c r="N7" s="127"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N7" s="125"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="B8" s="45"/>
       <c r="C8" s="51"/>
       <c r="D8" s="46"/>
@@ -3400,10 +3071,10 @@
       <c r="M8" s="46"/>
       <c r="N8" s="59"/>
     </row>
-    <row r="9" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="17" thickBot="1">
       <c r="B9" s="45"/>
       <c r="C9" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="30"/>
@@ -3414,15 +3085,15 @@
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
       <c r="M9" s="49"/>
-      <c r="N9" s="113"/>
-    </row>
-    <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="111"/>
+    </row>
+    <row r="10" spans="1:15" ht="17" thickBot="1">
       <c r="B10" s="45"/>
       <c r="C10" s="52" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="96"/>
       <c r="F10" s="50">
@@ -3435,20 +3106,20 @@
         <v>248000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="17" thickBot="1">
       <c r="B11" s="45"/>
       <c r="C11" s="52" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" s="93" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11" s="97"/>
       <c r="F11" s="54"/>
       <c r="G11" s="55"/>
       <c r="H11" s="49"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="B12" s="45"/>
       <c r="C12" s="51"/>
       <c r="D12" s="46"/>
@@ -3462,7 +3133,7 @@
       <c r="M12" s="46"/>
       <c r="N12" s="59"/>
     </row>
-    <row r="13" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="17" thickBot="1">
       <c r="B13" s="45"/>
       <c r="C13" s="12" t="s">
         <v>5</v>
@@ -3479,7 +3150,7 @@
       <c r="M13" s="46"/>
       <c r="N13" s="48"/>
     </row>
-    <row r="14" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="17" thickBot="1">
       <c r="B14" s="45"/>
       <c r="C14" s="52" t="s">
         <v>3</v>
@@ -3501,12 +3172,12 @@
       <c r="M14" s="46"/>
       <c r="N14" s="67"/>
     </row>
-    <row r="15" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="17" thickBot="1">
       <c r="B15" s="45"/>
-      <c r="C15" s="114" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="115" t="s">
+      <c r="C15" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="113" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="97"/>
@@ -3523,8 +3194,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:J21"/>
@@ -3533,7 +3204,7 @@
       <selection activeCell="A18" sqref="A18:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="61" customWidth="1"/>
     <col min="2" max="2" width="2.1640625" style="61" customWidth="1"/>
@@ -3547,8 +3218,8 @@
     <col min="11" max="16384" width="33.1640625" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -3559,10 +3230,10 @@
       <c r="I2" s="69"/>
       <c r="J2" s="63"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="64"/>
       <c r="C3" s="70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="70"/>
       <c r="E3" s="70"/>
@@ -3572,7 +3243,7 @@
       <c r="I3" s="71"/>
       <c r="J3" s="65"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="64"/>
       <c r="C4" s="65"/>
       <c r="D4" s="65"/>
@@ -3583,34 +3254,34 @@
       <c r="I4" s="72"/>
       <c r="J4" s="65"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="73"/>
       <c r="C5" s="74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="74" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="75" t="s">
-        <v>19</v>
-      </c>
       <c r="I5" s="75" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J5" s="74" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="64"/>
       <c r="C6" s="70"/>
       <c r="D6" s="70"/>
@@ -3621,34 +3292,34 @@
       <c r="I6" s="71"/>
       <c r="J6" s="70"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="64"/>
-      <c r="C7" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="116" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="116" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="116">
+      <c r="C7" s="115" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="114" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="114">
         <v>2013</v>
       </c>
-      <c r="G7" s="116">
+      <c r="G7" s="114">
         <v>2013</v>
       </c>
-      <c r="H7" s="118">
+      <c r="H7" s="116">
         <v>42325</v>
       </c>
-      <c r="I7" s="119" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="120" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I7" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="118" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="64"/>
       <c r="C8" s="76" t="s">
         <v>3</v>
@@ -3661,10 +3332,10 @@
       <c r="I8" s="65"/>
       <c r="J8" s="65"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="64"/>
       <c r="C9" s="76" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D9" s="65"/>
       <c r="E9" s="65"/>
@@ -3674,7 +3345,7 @@
       <c r="I9" s="65"/>
       <c r="J9" s="65"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="64"/>
       <c r="C10" s="76"/>
       <c r="D10" s="65"/>
@@ -3685,52 +3356,52 @@
       <c r="I10" s="65"/>
       <c r="J10" s="65"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" s="64"/>
       <c r="C11" s="77"/>
       <c r="D11" s="65"/>
       <c r="E11" s="65"/>
       <c r="F11" s="65"/>
       <c r="G11" s="65"/>
-      <c r="H11" s="118"/>
+      <c r="H11" s="116"/>
       <c r="I11" s="65"/>
       <c r="J11" s="65"/>
     </row>
-    <row r="12" spans="2:10" s="143" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="143" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="143" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="143">
+    <row r="12" spans="2:10" s="130" customFormat="1">
+      <c r="C12" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="130">
         <v>2015</v>
       </c>
-      <c r="H12" s="144" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="144" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="143" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="143" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="143" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="143">
+      <c r="H12" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="131" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="130" customFormat="1">
+      <c r="C13" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="130">
         <v>2015</v>
       </c>
-      <c r="H13" s="144" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="144" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H13" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="131" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="64"/>
       <c r="C14" s="76"/>
       <c r="D14" s="65"/>
@@ -3741,18 +3412,18 @@
       <c r="I14" s="65"/>
       <c r="J14" s="65"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="B15" s="64"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C15" s="126"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="64"/>
       <c r="C16" s="76"/>
       <c r="D16" s="65"/>
@@ -3763,84 +3434,84 @@
       <c r="I16" s="65"/>
       <c r="J16" s="65"/>
     </row>
-    <row r="18" spans="3:9" s="160" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="160" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="160" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="160" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="160">
+    <row r="18" spans="3:9" s="138" customFormat="1">
+      <c r="C18" s="138" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="138">
         <v>2015</v>
       </c>
-      <c r="H18" s="161" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" s="161" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" s="160" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="160" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="160" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="160" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="160">
+      <c r="H18" s="139" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="139" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" s="138" customFormat="1">
+      <c r="C19" s="138" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="138">
         <v>2015</v>
       </c>
-      <c r="H19" s="161" t="s">
-        <v>97</v>
-      </c>
-      <c r="I19" s="161" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" s="160" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="160" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="160" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="160" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="160">
+      <c r="H19" s="139" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="139" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" s="138" customFormat="1">
+      <c r="C20" s="138" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="138" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="138">
         <v>2016</v>
       </c>
-      <c r="H20" s="161" t="s">
-        <v>97</v>
-      </c>
-      <c r="I20" s="161" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" s="160" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="160" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="160" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="160" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="160">
+      <c r="H20" s="139" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="139" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" s="138" customFormat="1">
+      <c r="C21" s="138" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="138" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="138">
         <v>2016</v>
       </c>
-      <c r="H21" s="161" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" s="161" t="s">
-        <v>112</v>
+      <c r="H21" s="139" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="139" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3850,45 +3521,45 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="105" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" style="105" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="105"/>
-    <col min="4" max="4" width="8.5" style="105" customWidth="1"/>
-    <col min="5" max="5" width="15" style="105" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="105"/>
+    <col min="1" max="1" width="4.6640625" style="103" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" style="103" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="103"/>
+    <col min="4" max="4" width="8.5" style="103" customWidth="1"/>
+    <col min="5" max="5" width="15" style="103" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="103"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-    </row>
-    <row r="3" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="111"/>
+    <row r="1" spans="2:13" ht="17" thickBot="1"/>
+    <row r="2" spans="2:13">
+      <c r="B2" s="105"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+    </row>
+    <row r="3" spans="2:13" s="22" customFormat="1">
+      <c r="B3" s="109"/>
       <c r="C3" s="98" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="98" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E3" s="98"/>
       <c r="F3" s="98"/>
@@ -3900,763 +3571,763 @@
       <c r="L3" s="98"/>
       <c r="M3" s="98"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="109"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="109"/>
-      <c r="C5" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="109"/>
-      <c r="C6" s="110" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="109"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="109"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="109"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="109"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110">
+    <row r="4" spans="2:13">
+      <c r="B4" s="107"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="107"/>
+      <c r="C5" s="108" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="107"/>
+      <c r="C6" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="107"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="107"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="107"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="107"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="107"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="107"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108">
         <v>248000</v>
       </c>
-      <c r="F18" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="109"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="109"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="109"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="109"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="109"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="109"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="109"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="109"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="109"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110">
+      <c r="F18" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="107"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="107"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="107"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="107"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="107"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="108"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="107"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108">
         <v>12</v>
       </c>
-      <c r="F27" s="116" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="110"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="109"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="110"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="109"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="110"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="109"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="110"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="109"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="110"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="109"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="110"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="109"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="110"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="109"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="110"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" s="109"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="109"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="110"/>
-      <c r="M36" s="110"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37" s="109"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="110"/>
-      <c r="L37" s="110"/>
-      <c r="M37" s="110"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="109"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="110"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39" s="109"/>
-      <c r="C39" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="110"/>
-      <c r="M39" s="110"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="109"/>
-      <c r="C40" s="142" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="110"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="110"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="109"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42" s="109"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B43" s="109"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B44" s="109"/>
-      <c r="D44" s="160" t="s">
-        <v>113</v>
-      </c>
-      <c r="E44" s="105">
+      <c r="F27" s="114" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="108"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="107"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="108"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="107"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="107"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="108"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="107"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="108"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="107"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="108"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="107"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="108"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="108"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="107"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="108"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="107"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
+      <c r="L35" s="108"/>
+      <c r="M35" s="108"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="107"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="108"/>
+      <c r="L36" s="108"/>
+      <c r="M36" s="108"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="107"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="108"/>
+      <c r="L37" s="108"/>
+      <c r="M37" s="108"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="107"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="108"/>
+      <c r="L38" s="108"/>
+      <c r="M38" s="108"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="107"/>
+      <c r="C39" s="108" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="108"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="107"/>
+      <c r="C40" s="129" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="108"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="108"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="107"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="107"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="107"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="107"/>
+      <c r="D44" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="103">
         <v>6.8</v>
       </c>
-      <c r="F44" s="122" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B45" s="109"/>
-      <c r="E45" s="105">
+      <c r="F44" s="120" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="107"/>
+      <c r="E45" s="103">
         <f>1/E44</f>
         <v>0.14705882352941177</v>
       </c>
-      <c r="F45" s="122" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B46" s="109"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" s="109"/>
-      <c r="D47" s="160" t="s">
-        <v>114</v>
-      </c>
-      <c r="E47" s="105">
+      <c r="F45" s="120" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="107"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="107"/>
+      <c r="D47" s="138" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="103">
         <v>1.4</v>
       </c>
-      <c r="F47" s="122" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B48" s="109"/>
-      <c r="E48" s="105">
+      <c r="F47" s="120" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="107"/>
+      <c r="E48" s="103">
         <f>1/E47</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="F48" s="122" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B49" s="109"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B50" s="109"/>
-      <c r="D50" s="160" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" s="105">
+      <c r="F48" s="120" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="B49" s="107"/>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50" s="107"/>
+      <c r="D50" s="138" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="103">
         <f>((E44*G54)+(E47*G56))/(G54+G56)</f>
         <v>3.040553663308935</v>
       </c>
-      <c r="F50" s="160" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B51" s="109"/>
-      <c r="E51" s="105">
+      <c r="F50" s="138" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" s="107"/>
+      <c r="E51" s="103">
         <f>1/E50</f>
         <v>0.32888746943269953</v>
       </c>
-      <c r="F51" s="160" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="109"/>
-    </row>
-    <row r="53" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="109"/>
-    </row>
-    <row r="54" spans="2:12" s="160" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="162"/>
-      <c r="F54" s="160" t="s">
-        <v>116</v>
-      </c>
-      <c r="G54" s="147">
+      <c r="F51" s="138" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" s="107"/>
+    </row>
+    <row r="53" spans="2:12" ht="17" thickBot="1">
+      <c r="B53" s="107"/>
+    </row>
+    <row r="54" spans="2:12" s="138" customFormat="1" ht="17" thickBot="1">
+      <c r="B54" s="140"/>
+      <c r="F54" s="138" t="s">
+        <v>89</v>
+      </c>
+      <c r="G54" s="134">
         <v>7546</v>
       </c>
-      <c r="H54" s="160" t="s">
-        <v>117</v>
-      </c>
-      <c r="J54" s="160" t="s">
-        <v>96</v>
-      </c>
-      <c r="L54" s="160" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" s="160" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="162"/>
-      <c r="F55" s="160" t="s">
-        <v>119</v>
-      </c>
-      <c r="G55" s="147">
+      <c r="H54" s="138" t="s">
+        <v>90</v>
+      </c>
+      <c r="J54" s="138" t="s">
+        <v>69</v>
+      </c>
+      <c r="L54" s="141" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" s="138" customFormat="1" ht="17" thickBot="1">
+      <c r="B55" s="140"/>
+      <c r="F55" s="138" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="134">
         <v>68900</v>
       </c>
-      <c r="H55" s="160" t="s">
-        <v>117</v>
-      </c>
-      <c r="J55" s="160" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" s="160" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="162"/>
-      <c r="F56" s="160" t="s">
-        <v>120</v>
-      </c>
-      <c r="G56" s="147">
+      <c r="H55" s="138" t="s">
+        <v>90</v>
+      </c>
+      <c r="J55" s="138" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" s="138" customFormat="1" ht="17" thickBot="1">
+      <c r="B56" s="140"/>
+      <c r="F56" s="138" t="s">
+        <v>92</v>
+      </c>
+      <c r="G56" s="134">
         <v>17292.2</v>
       </c>
-      <c r="H56" s="160" t="s">
-        <v>117</v>
-      </c>
-      <c r="J56" s="160" t="s">
-        <v>109</v>
-      </c>
-      <c r="L56" s="160" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" s="160" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="162"/>
-      <c r="F57" s="160" t="s">
-        <v>122</v>
-      </c>
-      <c r="G57" s="147">
+      <c r="H56" s="138" t="s">
+        <v>90</v>
+      </c>
+      <c r="J56" s="138" t="s">
+        <v>82</v>
+      </c>
+      <c r="L56" s="138" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" s="138" customFormat="1" ht="17" thickBot="1">
+      <c r="B57" s="140"/>
+      <c r="F57" s="138" t="s">
+        <v>94</v>
+      </c>
+      <c r="G57" s="134">
         <v>1469</v>
       </c>
-      <c r="H57" s="160" t="s">
-        <v>117</v>
-      </c>
-      <c r="J57" s="160" t="s">
-        <v>109</v>
-      </c>
-      <c r="L57" s="160" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B58" s="109"/>
-    </row>
-    <row r="59" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="109"/>
-    </row>
-    <row r="60" spans="2:12" s="145" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="146" t="s">
-        <v>96</v>
+      <c r="H57" s="138" t="s">
+        <v>90</v>
+      </c>
+      <c r="J57" s="138" t="s">
+        <v>82</v>
+      </c>
+      <c r="L57" s="138" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="107"/>
+    </row>
+    <row r="59" spans="2:12" ht="17" thickBot="1">
+      <c r="B59" s="107"/>
+    </row>
+    <row r="60" spans="2:12" s="132" customFormat="1" ht="17" thickBot="1">
+      <c r="C60" s="133" t="s">
+        <v>69</v>
       </c>
       <c r="D60" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" s="147">
-        <f>G54+G56</f>
-        <v>24838.2</v>
+        <v>73</v>
+      </c>
+      <c r="E60" s="134">
+        <f>G54</f>
+        <v>7546</v>
       </c>
       <c r="F60" s="61" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="G60" s="61"/>
       <c r="H60" s="61"/>
       <c r="I60" s="61"/>
     </row>
-    <row r="61" spans="2:12" s="145" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" s="132" customFormat="1" ht="17" thickBot="1">
       <c r="C61" s="61"/>
       <c r="D61" s="61"/>
       <c r="E61" s="61">
         <f>E60*1000000</f>
-        <v>24838200000</v>
+        <v>7546000000</v>
       </c>
       <c r="F61" s="61" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="G61" s="61"/>
       <c r="H61" s="61"/>
       <c r="I61" s="61"/>
     </row>
-    <row r="62" spans="2:12" s="145" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" s="132" customFormat="1" ht="17" thickBot="1">
       <c r="C62" s="61"/>
       <c r="D62" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" s="148">
-        <f>G55+G57</f>
-        <v>70369</v>
+        <v>75</v>
+      </c>
+      <c r="E62" s="135">
+        <f>G55</f>
+        <v>68900</v>
       </c>
       <c r="F62" s="61" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="G62" s="61"/>
       <c r="H62" s="61"/>
       <c r="I62" s="61"/>
     </row>
-    <row r="63" spans="2:12" s="145" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:12" s="132" customFormat="1">
       <c r="C63" s="61"/>
       <c r="D63" s="61"/>
-      <c r="E63" s="149">
+      <c r="E63" s="136">
         <f>E62*1000000</f>
-        <v>70369000000</v>
+        <v>68900000000</v>
       </c>
       <c r="F63" s="61" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="G63" s="61"/>
       <c r="H63" s="61"/>
       <c r="I63" s="61"/>
     </row>
-    <row r="64" spans="2:12" s="145" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:12" s="132" customFormat="1">
       <c r="C64" s="61"/>
       <c r="D64" s="61"/>
       <c r="E64" s="61"/>
@@ -4665,21 +4336,21 @@
       <c r="H64" s="61"/>
       <c r="I64" s="61"/>
     </row>
-    <row r="65" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:9" s="132" customFormat="1">
       <c r="C65" s="61"/>
       <c r="D65" s="61"/>
-      <c r="E65" s="150">
+      <c r="E65" s="137">
         <f>E63/E61</f>
-        <v>2.8330957959916581</v>
+        <v>9.1306652531142323</v>
       </c>
       <c r="F65" s="61" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="G65" s="61"/>
       <c r="H65" s="61"/>
       <c r="I65" s="61"/>
     </row>
-    <row r="66" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:9" s="132" customFormat="1">
       <c r="C66" s="61"/>
       <c r="D66" s="61"/>
       <c r="E66" s="61"/>
@@ -4688,7 +4359,7 @@
       <c r="H66" s="61"/>
       <c r="I66" s="61"/>
     </row>
-    <row r="67" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:9" s="132" customFormat="1">
       <c r="C67" s="61"/>
       <c r="D67" s="61"/>
       <c r="E67" s="61"/>
@@ -4697,7 +4368,7 @@
       <c r="H67" s="61"/>
       <c r="I67" s="61"/>
     </row>
-    <row r="68" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:9" s="132" customFormat="1">
       <c r="C68" s="61"/>
       <c r="D68" s="61"/>
       <c r="E68" s="61"/>
@@ -4706,26 +4377,26 @@
       <c r="H68" s="61"/>
       <c r="I68" s="61"/>
     </row>
-    <row r="69" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:9" s="132" customFormat="1">
       <c r="C69" s="61"/>
       <c r="D69" s="61" t="str">
         <f>Dashboard!C11</f>
         <v>output.freight_tonne_kms</v>
       </c>
       <c r="E69" s="61">
-        <f>E65*E51</f>
-        <v>0.93176970700411599</v>
+        <f>E65*E45</f>
+        <v>1.3427448901638577</v>
       </c>
       <c r="F69" s="61" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="G69" s="61"/>
       <c r="H69" s="94" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I69" s="61"/>
     </row>
-    <row r="70" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:9" s="132" customFormat="1">
       <c r="C70" s="61"/>
       <c r="D70" s="61"/>
       <c r="E70" s="61"/>
@@ -4734,7 +4405,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="61"/>
     </row>
-    <row r="71" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:9" s="132" customFormat="1">
       <c r="C71" s="61"/>
       <c r="D71" s="61"/>
       <c r="E71" s="61"/>
@@ -4743,126 +4414,136 @@
       <c r="H71" s="94"/>
       <c r="I71" s="61"/>
     </row>
-    <row r="72" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:9" s="132" customFormat="1">
       <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
+      <c r="D72" s="141" t="s">
+        <v>98</v>
+      </c>
       <c r="E72" s="61"/>
       <c r="F72" s="61"/>
       <c r="G72" s="61"/>
       <c r="H72" s="61"/>
       <c r="I72" s="61"/>
     </row>
-    <row r="73" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="3:9" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="2:3" s="145" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B95" s="109"/>
-      <c r="C95" s="126"/>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B96" s="109"/>
-      <c r="C96" s="126"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="119"/>
-      <c r="B97" s="121"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="119"/>
-      <c r="B98" s="121"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="119"/>
-      <c r="B99" s="121"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="119"/>
-      <c r="B100" s="121"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="119"/>
-      <c r="B101" s="121"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="119"/>
-      <c r="B102" s="121"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="119"/>
-      <c r="B103" s="121"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="119"/>
-      <c r="B104" s="121"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="119"/>
-      <c r="B105" s="121"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="119"/>
-      <c r="B106" s="121"/>
-      <c r="F106" s="126"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="119"/>
-      <c r="B107" s="121"/>
-      <c r="F107" s="126"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="119"/>
-      <c r="B108" s="121"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="119"/>
-      <c r="B109" s="121"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="119"/>
-      <c r="B110" s="121"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="119"/>
-      <c r="B111" s="121"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="119"/>
-      <c r="B112" s="121"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="119"/>
-      <c r="B113" s="121"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="119"/>
-      <c r="B114" s="121"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="119"/>
-      <c r="B115" s="121"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="119"/>
-      <c r="B116" s="121"/>
+    <row r="73" spans="3:9" s="132" customFormat="1">
+      <c r="D73" s="141" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" s="132" customFormat="1">
+      <c r="D74" s="141" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" s="132" customFormat="1"/>
+    <row r="76" spans="3:9" s="132" customFormat="1"/>
+    <row r="77" spans="3:9" s="132" customFormat="1"/>
+    <row r="78" spans="3:9" s="132" customFormat="1"/>
+    <row r="79" spans="3:9" s="132" customFormat="1"/>
+    <row r="80" spans="3:9" s="132" customFormat="1"/>
+    <row r="81" spans="2:3" s="132" customFormat="1"/>
+    <row r="82" spans="2:3" s="132" customFormat="1"/>
+    <row r="83" spans="2:3" s="132" customFormat="1"/>
+    <row r="84" spans="2:3" s="132" customFormat="1"/>
+    <row r="85" spans="2:3" s="132" customFormat="1"/>
+    <row r="86" spans="2:3" s="132" customFormat="1"/>
+    <row r="87" spans="2:3" s="132" customFormat="1"/>
+    <row r="88" spans="2:3" s="132" customFormat="1"/>
+    <row r="89" spans="2:3" s="132" customFormat="1"/>
+    <row r="90" spans="2:3" s="132" customFormat="1"/>
+    <row r="91" spans="2:3" s="132" customFormat="1"/>
+    <row r="92" spans="2:3" s="132" customFormat="1"/>
+    <row r="93" spans="2:3" s="132" customFormat="1"/>
+    <row r="94" spans="2:3" s="132" customFormat="1"/>
+    <row r="95" spans="2:3">
+      <c r="B95" s="107"/>
+      <c r="C95" s="124"/>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" s="107"/>
+      <c r="C96" s="124"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="117"/>
+      <c r="B97" s="119"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="117"/>
+      <c r="B98" s="119"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="117"/>
+      <c r="B99" s="119"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="117"/>
+      <c r="B100" s="119"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="117"/>
+      <c r="B101" s="119"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="117"/>
+      <c r="B102" s="119"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="117"/>
+      <c r="B103" s="119"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="117"/>
+      <c r="B104" s="119"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="117"/>
+      <c r="B105" s="119"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="117"/>
+      <c r="B106" s="119"/>
+      <c r="F106" s="124"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="117"/>
+      <c r="B107" s="119"/>
+      <c r="F107" s="124"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="117"/>
+      <c r="B108" s="119"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="117"/>
+      <c r="B109" s="119"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="117"/>
+      <c r="B110" s="119"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="117"/>
+      <c r="B111" s="119"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="117"/>
+      <c r="B112" s="119"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="117"/>
+      <c r="B113" s="119"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="117"/>
+      <c r="B114" s="119"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="117"/>
+      <c r="B115" s="119"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="117"/>
+      <c r="B116" s="119"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
